--- a/assets/ptsoi/vln_poi.xlsx
+++ b/assets/ptsoi/vln_poi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\app-idea\app-idea\assets\ptsoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\app-idea\ai-tourguide\frontend\assets\ptsoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E040AA35-612D-4859-A449-9BDDC9E1B285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E21E7A-704F-4ABD-9409-863376C6A4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15132" windowHeight="13776" xr2:uid="{C0410F2E-46BA-4D0A-BA1E-80A2C3B8835F}"/>
+    <workbookView xWindow="3636" yWindow="2316" windowWidth="17280" windowHeight="9960" xr2:uid="{C0410F2E-46BA-4D0A-BA1E-80A2C3B8835F}"/>
   </bookViews>
   <sheets>
     <sheet name="Vilnius" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,11 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -280,10 +276,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,7 +605,7 @@
   <cols>
     <col min="2" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
@@ -626,10 +618,10 @@
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -643,10 +635,10 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>54.686948977611102</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>25.290992036489399</v>
       </c>
     </row>
@@ -660,10 +652,10 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>54.686853625839902</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>25.297578871267099</v>
       </c>
     </row>
@@ -677,10 +669,10 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>54.686011729729003</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>25.287786126169799</v>
       </c>
     </row>
@@ -694,10 +686,10 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>54.685869086302901</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>25.2866488695892</v>
       </c>
     </row>
@@ -711,10 +703,10 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>54.677129230783002</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>25.2923187556123</v>
       </c>
     </row>
@@ -728,10 +720,10 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>54.6744457194078</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>25.289522936137999</v>
       </c>
     </row>
@@ -745,10 +737,10 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>54.683244692406902</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>25.2932361390022</v>
       </c>
     </row>
@@ -762,10 +754,10 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>54.655160041102697</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>24.931631993998099</v>
       </c>
     </row>
@@ -779,10 +771,10 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>54.692800000287498</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>25.272473793524</v>
       </c>
     </row>
@@ -796,10 +788,10 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>54.678177753881698</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>25.287036749795799</v>
       </c>
     </row>
@@ -813,10 +805,10 @@
       <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>54.679646714643503</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>25.277280293158601</v>
       </c>
     </row>
@@ -830,10 +822,10 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>54.686561465280498</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <v>25.282461564874499</v>
       </c>
     </row>
@@ -847,10 +839,10 @@
       <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>54.688005743749201</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <v>25.270442575319102</v>
       </c>
     </row>
@@ -864,10 +856,10 @@
       <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>54.688175122926097</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <v>25.291452729997101</v>
       </c>
     </row>
@@ -881,10 +873,10 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>54.690235358903202</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="14">
         <v>25.287975024160598</v>
       </c>
     </row>
@@ -898,10 +890,10 @@
       <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>54.685369495168104</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <v>25.288570827370499</v>
       </c>
     </row>
@@ -915,10 +907,10 @@
       <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>54.680682671729798</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="14">
         <v>25.2953970365316</v>
       </c>
     </row>
@@ -932,10 +924,10 @@
       <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>54.687517187562399</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="14">
         <v>25.2886348281809</v>
       </c>
     </row>
@@ -949,10 +941,10 @@
       <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>54.688305627217801</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <v>25.271953944417401</v>
       </c>
     </row>
@@ -966,10 +958,10 @@
       <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>54.687507661225503</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="14">
         <v>25.2805975241731</v>
       </c>
     </row>
@@ -983,10 +975,10 @@
       <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="14">
         <v>54.685765196779499</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="14">
         <v>25.286922344767401</v>
       </c>
     </row>
@@ -1000,10 +992,10 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>54.696864268080901</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="14">
         <v>25.2712399374354</v>
       </c>
     </row>
